--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,30 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>forced</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -94,154 +73,133 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
@@ -250,7 +208,10 @@
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>shopping</t>
@@ -259,10 +220,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -620,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -739,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L6">
         <v>31</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>18</v>
-      </c>
       <c r="M6">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7">
-        <v>0.96875</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>31</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.9</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7207792207792207</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,31 +1121,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>130</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,749 +1153,557 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>236</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L13">
+        <v>66</v>
+      </c>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.8046875</v>
+      </c>
+      <c r="L14">
+        <v>103</v>
+      </c>
+      <c r="M14">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L15">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L17">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>91</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L19">
+        <v>106</v>
+      </c>
+      <c r="M19">
+        <v>106</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L20">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.69375</v>
+      </c>
+      <c r="L25">
+        <v>111</v>
+      </c>
+      <c r="M25">
+        <v>111</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L26">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.4375</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>9</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.6698113207547169</v>
+      </c>
+      <c r="L27">
+        <v>71</v>
+      </c>
+      <c r="M27">
+        <v>71</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L28">
+        <v>57</v>
+      </c>
+      <c r="M28">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="C16">
-        <v>86</v>
-      </c>
-      <c r="D16">
-        <v>86</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>147</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.875</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L17">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M17">
-        <v>48</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>69</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1875</v>
-      </c>
-      <c r="C19">
+      <c r="K31">
+        <v>0.5561357702349869</v>
+      </c>
+      <c r="L31">
+        <v>213</v>
+      </c>
+      <c r="M31">
+        <v>213</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>65</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>44</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C20">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>13</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>97</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L20">
-        <v>41</v>
-      </c>
-      <c r="M20">
-        <v>41</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04301075268817205</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>178</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L25">
-        <v>43</v>
-      </c>
-      <c r="M25">
-        <v>43</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.72</v>
-      </c>
-      <c r="L26">
-        <v>18</v>
-      </c>
-      <c r="M26">
-        <v>18</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.72</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>18</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>18</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L31">
-        <v>48</v>
-      </c>
-      <c r="M31">
-        <v>48</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1943,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1969,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1995,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2021,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5821596244131455</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L37">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2047,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5789473684210527</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2073,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2099,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.45</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2125,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5038759689922481</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L41">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2151,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2177,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2203,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.48</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L44">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2229,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.4722222222222222</v>
+        <v>0.328125</v>
       </c>
       <c r="L45">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2255,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4571428571428571</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2281,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4333333333333333</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2307,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.4117647058823529</v>
+        <v>0.03467561521252797</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2333,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>863</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4021739130434783</v>
+        <v>0.03125</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2359,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>55</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.375</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2385,189 +2157,85 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.3333333333333333</v>
+        <v>0.0135450723960766</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.2894736842105263</v>
+        <v>0.01062459755312299</v>
       </c>
       <c r="L52">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>27</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.2702702702702703</v>
+        <v>0.005632040050062578</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54">
-        <v>0.03349282296650718</v>
-      </c>
-      <c r="L54">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55">
-        <v>0.02347417840375587</v>
-      </c>
-      <c r="L55">
-        <v>10</v>
-      </c>
-      <c r="M55">
-        <v>10</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56">
-        <v>0.02195121951219512</v>
-      </c>
-      <c r="L56">
-        <v>9</v>
-      </c>
-      <c r="M56">
-        <v>9</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K57">
-        <v>0.01158645276292335</v>
-      </c>
-      <c r="L57">
-        <v>13</v>
-      </c>
-      <c r="M57">
-        <v>14</v>
-      </c>
-      <c r="N57">
-        <v>0.93</v>
-      </c>
-      <c r="O57">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1109</v>
+        <v>3178</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,22 +43,31 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -70,154 +79,163 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>credit</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>19</t>
@@ -584,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -703,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6027397260273972</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9347826086956522</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5517241379310345</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2267441860465116</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>399</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.8660714285714286</v>
@@ -1053,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.201058201058201</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.8636363636363636</v>
@@ -1103,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1275167785234899</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1121,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1153,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06349206349206349</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>236</v>
+        <v>415</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,21 +1213,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1693121693121693</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>157</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,21 +1263,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.1610738255033557</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>125</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7583333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1299,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1325,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7464788732394366</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1351,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1377,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1403,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1429,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6956521739130435</v>
+        <v>0.70625</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1455,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1481,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.69375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1507,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1533,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6698113207547169</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L27">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1559,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6063829787234043</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1585,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1611,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1637,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5561357702349869</v>
+        <v>0.58</v>
       </c>
       <c r="L31">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1663,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1689,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1715,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5238095238095238</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1741,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1767,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1793,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4943820224719101</v>
+        <v>0.4677966101694915</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1819,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.461764705882353</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L38">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1845,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4576271186440678</v>
+        <v>0.45</v>
       </c>
       <c r="L39">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1871,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.45</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1897,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4246575342465753</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1923,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3598326359832636</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L42">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1949,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>153</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3538461538461539</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1975,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3461538461538461</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2001,12 +2067,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K45">
         <v>0.328125</v>
@@ -2032,16 +2098,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.2571428571428571</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2053,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.03827751196172249</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2079,47 +2145,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>402</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.03467561521252797</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>863</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.03125</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2131,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.02663706992230854</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2157,85 +2223,189 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>877</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.0135450723960766</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2112</v>
+        <v>873</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.01062459755312299</v>
+        <v>0.02003081664098613</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3073</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.005632040050062578</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3178</v>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54">
+        <v>0.0134297520661157</v>
+      </c>
+      <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <v>13</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55">
+        <v>0.01262272089761571</v>
+      </c>
+      <c r="L55">
+        <v>27</v>
+      </c>
+      <c r="M55">
+        <v>31</v>
+      </c>
+      <c r="N55">
+        <v>0.87</v>
+      </c>
+      <c r="O55">
+        <v>0.13</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="L56">
+        <v>32</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>0.91</v>
+      </c>
+      <c r="O56">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57">
+        <v>0.005317485142320926</v>
+      </c>
+      <c r="L57">
+        <v>17</v>
+      </c>
+      <c r="M57">
+        <v>21</v>
+      </c>
+      <c r="N57">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O57">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3180</v>
       </c>
     </row>
   </sheetData>
